--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="R75" s="2" t="inlineStr"/>
     </row>
-    <row r="76">
+    <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
           <t>A 34170-2023</t>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5026,6 +5026,63 @@
         <v>0</v>
       </c>
       <c r="R76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>A 42050-2023</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 36496-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 36496-2022.xlsx", "A 36496-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 36496-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 36496-2022.png", "A 36496-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 36496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 36496-2022.docx", "A 36496-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 36496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 36496-2022.docx", "A 36496-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 36496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 36496-2022.docx", "A 36496-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 36496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 36496-2022.docx", "A 36496-2022")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 14597-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 14597-2020.xlsx", "A 14597-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 14597-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 14597-2020.png", "A 14597-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 14597-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 14597-2020.docx", "A 14597-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 14597-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 14597-2020.docx", "A 14597-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 14597-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 14597-2020.docx", "A 14597-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 14597-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 14597-2020.docx", "A 14597-2020")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,27 +805,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 62306-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 62306-2018.xlsx", "A 62306-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 62306-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 62306-2018.png", "A 62306-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 62306-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 62306-2018.docx", "A 62306-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 62306-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 62306-2018.docx", "A 62306-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 62306-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 62306-2018.docx", "A 62306-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 62306-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 62306-2018.docx", "A 62306-2018")</f>
         <v/>
       </c>
     </row>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,27 +890,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 62876-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 62876-2018.xlsx", "A 62876-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 62876-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 62876-2018.png", "A 62876-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 62876-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 62876-2018.docx", "A 62876-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 62876-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 62876-2018.docx", "A 62876-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 62876-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 62876-2018.docx", "A 62876-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 62876-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 62876-2018.docx", "A 62876-2018")</f>
         <v/>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -975,27 +975,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 22786-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 22786-2023.xlsx", "A 22786-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 22786-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 22786-2023.png", "A 22786-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 22786-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 22786-2023.docx", "A 22786-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 22786-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 22786-2023.docx", "A 22786-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 22786-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 22786-2023.docx", "A 22786-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 22786-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 22786-2023.docx", "A 22786-2023")</f>
         <v/>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1060,27 +1060,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 27658-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 27658-2023.xlsx", "A 27658-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 27658-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 27658-2023.png", "A 27658-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 27658-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 27658-2023.docx", "A 27658-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 27658-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 27658-2023.docx", "A 27658-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 27658-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 27658-2023.docx", "A 27658-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 27658-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 27658-2023.docx", "A 27658-2023")</f>
         <v/>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43413</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>45072</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="R76" s="2" t="inlineStr"/>
     </row>
-    <row r="77">
+    <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
           <t>A 42050-2023</t>
@@ -5037,7 +5037,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5083,6 +5083,63 @@
         <v>0</v>
       </c>
       <c r="R77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>A 44496-2023</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,258 +832,259 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
+          <t>A 27658-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45097</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Havsörn
+Spillkråka</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 27658-2023.xlsx", "A 27658-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 27658-2023.png", "A 27658-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 27658-2023.docx", "A 27658-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 27658-2023.docx", "A 27658-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 27658-2023.docx", "A 27658-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 27658-2023.docx", "A 27658-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>A 62876-2018</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>43413</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0.7</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Ask</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 62876-2018.xlsx", "A 62876-2018")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 62876-2018.png", "A 62876-2018")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 62876-2018.docx", "A 62876-2018")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 62876-2018.docx", "A 62876-2018")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 62876-2018.docx", "A 62876-2018")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 62876-2018.docx", "A 62876-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 22786-2023</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>45072</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ESLÖV</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>12.8</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Ask</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 22786-2023.xlsx", "A 22786-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 22786-2023.png", "A 22786-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 22786-2023.docx", "A 22786-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 22786-2023.docx", "A 22786-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 22786-2023.docx", "A 22786-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 22786-2023.docx", "A 22786-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 27658-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45097</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ESLÖV</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/artfynd/A 27658-2023.xlsx", "A 27658-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/kartor/A 27658-2023.png", "A 27658-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomål/A 27658-2023.docx", "A 27658-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/klagomålsmail/A 27658-2023.docx", "A 27658-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsyn/A 27658-2023.docx", "A 27658-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ESLOV/tillsynsmail/A 27658-2023.docx", "A 27658-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1094,7 +1095,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,7 +1152,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1208,7 +1209,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1265,7 +1266,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1322,7 +1323,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1379,7 +1380,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1436,7 +1437,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1493,7 +1494,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1550,7 +1551,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1607,7 +1608,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1664,7 +1665,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1721,7 +1722,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1778,7 +1779,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1835,7 +1836,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1892,7 +1893,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1949,7 +1950,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2006,7 +2007,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2063,7 +2064,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2120,7 +2121,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2177,7 +2178,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2235,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2292,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2348,7 +2349,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2405,7 +2406,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2462,7 +2463,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2519,7 +2520,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2576,7 +2577,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2633,7 +2634,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2690,7 +2691,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2747,7 +2748,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2804,7 +2805,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2861,7 +2862,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2918,7 +2919,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2975,7 +2976,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3032,7 +3033,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3089,7 +3090,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3146,7 +3147,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3203,7 +3204,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3260,7 +3261,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3317,7 +3318,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3374,7 +3375,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3431,7 +3432,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3488,7 +3489,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3545,7 +3546,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3602,7 +3603,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3659,7 +3660,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3716,7 +3717,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3773,7 +3774,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3830,7 +3831,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3887,7 +3888,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3944,7 +3945,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4001,7 +4002,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4058,7 +4059,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4115,7 +4116,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4172,7 +4173,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4234,7 +4235,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4291,7 +4292,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4348,7 +4349,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4405,7 +4406,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4462,7 +4463,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4519,7 +4520,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4576,7 +4577,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4633,7 +4634,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4690,7 +4691,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4747,7 +4748,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4809,7 +4810,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4866,7 +4867,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4923,7 +4924,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4980,7 +4981,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5037,7 +5038,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5094,7 +5095,7 @@
         <v>45189</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45097</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>45072</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>45189</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45097</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>45072</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>45189</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45097</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>45072</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>45189</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt ESLÖV.xlsx
+++ b/Översikt ESLÖV.xlsx
@@ -572,7 +572,7 @@
         <v>44803</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43902</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>43413</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>45097</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43413</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>45072</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43376</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43403</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43413</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43413</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43413</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43424</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43424</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43595</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43606</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43619</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43633</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43651</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43651</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43651</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43689</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43700</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43707</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43816</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43909</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43957</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43969</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43969</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43979</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43998</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43998</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>44000</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>44013</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>44019</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44070</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>44082</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>44159</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>44159</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>44337</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44371</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>44553</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>44578</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>44594</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>44596</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>44609</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44645</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>44690</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>44725</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>44741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44741</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>44805</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44816</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44925</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>44958</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>44960</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44980</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44981</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>44981</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>44981</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>44984</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>45019</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45030</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45040</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>45041</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>45089</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>45097</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>45138</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>45177</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>45189</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
